--- a/Doc/ExcelConfig/Datas/活动/ActivityConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/活动/ActivityConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>##</t>
   </si>
@@ -81,6 +81,136 @@
     <t>活动脚本</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TActivitySevenDayLogin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TActivityMonthLogin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TActivityDailyOnlinePrize</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TActivityInvestMetaStone</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TActivityTotalGainMetaStone</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TActivityGiftCommond</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TActivityFirstCharge</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TActivityTotalOnlineTime</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TActivityTotalSpendMetaStone</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF66C3CC"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TActivityMentorshipTree</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">        public const short TActivitySevenDayLogin = 1;</t>
   </si>
   <si>
@@ -130,7 +260,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +281,13 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF66C3CC"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -280,6 +417,14 @@
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF66C3CC"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -589,10 +734,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,7 +746,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,25 +755,22 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,98 +782,101 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
@@ -747,6 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1072,7 +1218,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D7"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1081,7 +1227,8 @@
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="6" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="28.75" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -1154,11 +1301,13 @@
       <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <v>2</v>
       </c>
       <c r="C5" s="6">
@@ -1167,11 +1316,13 @@
       <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>3</v>
       </c>
       <c r="C6" s="6">
@@ -1180,11 +1331,13 @@
       <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>4</v>
       </c>
       <c r="C7" s="6">
@@ -1193,211 +1346,258 @@
       <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="8">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="B10" s="8">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="B11" s="8">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="B12" s="8">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="B13" s="8">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1419,67 +1619,67 @@
   <sheetData>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
